--- a/data/trans_camb/P29_R-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P29_R-Provincia-trans_camb.xlsx
@@ -646,7 +646,7 @@
         <v>7.289850528441788</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>9.567879293477134</v>
+        <v>9.567879293477144</v>
       </c>
       <c r="F4" s="5" t="n">
         <v>10.01843479847731</v>
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-3.132811486138403</v>
+        <v>-2.48920185897061</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-2.657954905124785</v>
+        <v>-1.780149689402156</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.4910738522651031</v>
+        <v>0.4996633887173902</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>2.025714634449079</v>
+        <v>2.430615540378767</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>1.313120432908384</v>
+        <v>1.357370688247942</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>11.02449336061455</v>
+        <v>11.81378274205649</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>1.404758735226194</v>
+        <v>2.26623484852586</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>1.941147891099493</v>
+        <v>2.013816215690054</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>8.526107866662922</v>
+        <v>7.487129435596293</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>15.03015470026985</v>
+        <v>13.7087876010839</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>15.10191249890671</v>
+        <v>15.78249585158349</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>17.22781522684342</v>
+        <v>17.75110370401253</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>18.34293956852787</v>
+        <v>18.4162845784684</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>17.1830975702031</v>
+        <v>17.49701875956329</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>25.75338152728553</v>
+        <v>25.44254378038898</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>13.97445358438502</v>
+        <v>13.92727641447533</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>14.07066813799127</v>
+        <v>13.96313408884082</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>19.75992545549141</v>
+        <v>19.5676404582008</v>
       </c>
     </row>
     <row r="7">
@@ -751,7 +751,7 @@
         <v>0.1361760609751697</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>0.1787301548897608</v>
+        <v>0.178730154889761</v>
       </c>
       <c r="F7" s="6" t="n">
         <v>0.3556537188981385</v>
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.05293954189022437</v>
+        <v>-0.04417781965279483</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.04598792379373857</v>
+        <v>-0.03010627660125936</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>0.01073914642819915</v>
+        <v>0.007406491151594039</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>0.06322110676418231</v>
+        <v>0.07856197210062071</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.04227257812230735</v>
+        <v>0.03486424378393186</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.3342803218166816</v>
+        <v>0.3590353300952982</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.02808568681300797</v>
+        <v>0.04871753774132261</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.0446429113922693</v>
+        <v>0.04356554011920349</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>0.1862393095087949</v>
+        <v>0.16490759190693</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.3030526785481866</v>
+        <v>0.2732698551627977</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.3064719279376215</v>
+        <v>0.319557256204829</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.3568487201173638</v>
+        <v>0.3626102187390838</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.7920976091041442</v>
+        <v>0.797933358991872</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.7225852321499608</v>
+        <v>0.735252101263261</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>1.130848761544496</v>
+        <v>1.098221952313395</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.3744806218712392</v>
+        <v>0.3722728739829144</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.3758128558478748</v>
+        <v>0.3736061117228566</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>0.5249493334549079</v>
+        <v>0.5174671047912865</v>
       </c>
     </row>
     <row r="10">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>8.452494309233385</v>
+        <v>8.716964486547708</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.2834625826515192</v>
+        <v>0.3876382277071532</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>4.995737801215876</v>
+        <v>5.467601602357449</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>9.153397582545464</v>
+        <v>9.545917186864639</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-0.165241912520983</v>
+        <v>0.6252727900460452</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>11.46371216858517</v>
+        <v>11.80335880256585</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>10.54134118714921</v>
+        <v>10.42209363775751</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>1.710799391593944</v>
+        <v>1.627251439667488</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>10.10828275044404</v>
+        <v>10.22565863808743</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>22.11279540685131</v>
+        <v>21.89592055836598</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>13.20437261238218</v>
+        <v>13.17863077464071</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>20.06009132870518</v>
+        <v>20.02407538873252</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>19.34274149965964</v>
+        <v>19.64328176605041</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>9.32716216801702</v>
+        <v>9.612999985909441</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>21.23111378542031</v>
+        <v>21.73332920180054</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>18.90605007215956</v>
+        <v>19.21683616169623</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>10.0999515471984</v>
+        <v>9.69170693292992</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>19.10604380088581</v>
+        <v>19.03048044216042</v>
       </c>
     </row>
     <row r="13">
@@ -983,7 +983,7 @@
         <v>0.193923762728957</v>
       </c>
       <c r="K13" s="6" t="n">
-        <v>0.485218714553902</v>
+        <v>0.4852187145539021</v>
       </c>
     </row>
     <row r="14">
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>0.1703731776472966</v>
+        <v>0.1812951361390702</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>0.004695895009110055</v>
+        <v>0.007157179630292733</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>0.09792022806713144</v>
+        <v>0.1080791290526588</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>0.5234207277296146</v>
+        <v>0.5571255866254803</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.003764729247843544</v>
+        <v>0.03841942109396525</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6836732694194696</v>
+        <v>0.6930038136892964</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.3305903525909295</v>
+        <v>0.3218039858784086</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.05307678689373107</v>
+        <v>0.04891976955861567</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>0.3192031726469833</v>
+        <v>0.3151826143530394</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.5137361656371838</v>
+        <v>0.524949610255801</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.3111650522739366</v>
+        <v>0.3091145705757393</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.4700523514774807</v>
+        <v>0.4550488733795015</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>1.557010426008947</v>
+        <v>1.568437271461556</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.7609927076888424</v>
+        <v>0.7811251691688669</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>1.743708599587743</v>
+        <v>1.780241951519588</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.6722546941576281</v>
+        <v>0.686403313236936</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.3591379370262818</v>
+        <v>0.3385608999895893</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>0.6965662784930909</v>
+        <v>0.6761605668060043</v>
       </c>
     </row>
     <row r="16">
@@ -1083,7 +1083,7 @@
         <v>10.48929835451004</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>4.999937605889182</v>
+        <v>4.999937605889188</v>
       </c>
       <c r="I16" s="5" t="n">
         <v>6.250919663571897</v>
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-6.181146814098341</v>
+        <v>-7.148868880046884</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-3.413888256906397</v>
+        <v>-3.570960887589639</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-7.079721367696289</v>
+        <v>-6.592037146762155</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3.768454927588038</v>
+        <v>3.562492905932277</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>3.213477747074092</v>
+        <v>3.39119269799503</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-1.549066958388489</v>
+        <v>-1.2768879118714</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>1.110672748404639</v>
+        <v>0.7724513571271971</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>1.969422348834205</v>
+        <v>2.096274191612303</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-2.803233662918001</v>
+        <v>-2.461607367224332</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>8.795769037812578</v>
+        <v>9.831276902761468</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>11.66279770310474</v>
+        <v>11.62884141092082</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>8.49214889509792</v>
+        <v>9.493235889050473</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>18.42628439763683</v>
+        <v>17.53931313837134</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>17.1445760050524</v>
+        <v>17.1300364783852</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>11.12015002520495</v>
+        <v>11.37916613675242</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>12.16569239975714</v>
+        <v>11.54140331981819</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>12.69117470198593</v>
+        <v>12.85343544251411</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>8.018138659967375</v>
+        <v>7.35072506225347</v>
       </c>
     </row>
     <row r="19">
@@ -1188,7 +1188,7 @@
         <v>0.4045410353568873</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.19283272030646</v>
+        <v>0.1928327203064603</v>
       </c>
       <c r="I19" s="6" t="n">
         <v>0.1455886249889234</v>
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.09895552668868739</v>
+        <v>-0.1087051251768418</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.05489904448237009</v>
+        <v>-0.05445040109144422</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.1065756960212771</v>
+        <v>-0.1042927478770061</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>0.1247353377949259</v>
+        <v>0.1176786927514253</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.1101277079116105</v>
+        <v>0.1084755035712863</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.05382833306985492</v>
+        <v>-0.04310816015160314</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.0249895322236893</v>
+        <v>0.01656969514928136</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>0.04556296474858772</v>
+        <v>0.04771434983372363</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.05949698109333907</v>
+        <v>-0.05342077787957995</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.1532743740829514</v>
+        <v>0.1783333221514069</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.2120264644742211</v>
+        <v>0.2024250563858498</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>0.1516868419433911</v>
+        <v>0.1691825644630218</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.8050496483420794</v>
+        <v>0.7580737957815065</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.76354711438359</v>
+        <v>0.7655863934106564</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.5095967104939848</v>
+        <v>0.5146241456635189</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.3017349976539316</v>
+        <v>0.2923867287099958</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.3213534662988204</v>
+        <v>0.3227136135078189</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>0.2039009272480585</v>
+        <v>0.1891817393614598</v>
       </c>
     </row>
     <row r="22">
@@ -1297,7 +1297,7 @@
         <v>4.206727092834084</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>2.586380099222657</v>
+        <v>2.586380099222668</v>
       </c>
       <c r="I22" s="5" t="n">
         <v>-14.02775098525959</v>
@@ -1306,7 +1306,7 @@
         <v>0.4865789556365296</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>-2.052762305743033</v>
+        <v>-2.052762305743045</v>
       </c>
     </row>
     <row r="23">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-22.36707671581142</v>
+        <v>-23.08854577071732</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-9.944876761133273</v>
+        <v>-9.915789302875114</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-14.90430925776675</v>
+        <v>-14.36719998409698</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-19.03525515524884</v>
+        <v>-19.42610419573781</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-2.864641623834152</v>
+        <v>-2.703738538562776</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-4.374882963585179</v>
+        <v>-4.483407708989901</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-18.89557201597707</v>
+        <v>-19.42732115771799</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-4.932099889057453</v>
+        <v>-4.79359473086665</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>-7.567313477142114</v>
+        <v>-7.981047862909506</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>-8.234281708808142</v>
+        <v>-8.432251744995458</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>3.728814271184332</v>
+        <v>3.663798896540964</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>1.502984694161855</v>
+        <v>2.632906192921357</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>-6.550458720557634</v>
+        <v>-6.556210768081685</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>11.37662449134542</v>
+        <v>10.65345069753987</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>8.78625130425614</v>
+        <v>8.8130739674975</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>-8.797626442076906</v>
+        <v>-9.138370127837153</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>5.306842057269029</v>
+        <v>5.330189061710326</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>3.060218465000729</v>
+        <v>3.562430885935928</v>
       </c>
     </row>
     <row r="25">
@@ -1402,7 +1402,7 @@
         <v>0.1193505139041622</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.0733790871576981</v>
+        <v>0.07337908715769842</v>
       </c>
       <c r="I25" s="6" t="n">
         <v>-0.2776963185867488</v>
@@ -1411,7 +1411,7 @@
         <v>0.009632419681817496</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>-0.0406369157705673</v>
+        <v>-0.04063691577056752</v>
       </c>
     </row>
     <row r="26">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.3220338280652156</v>
+        <v>-0.328531931213811</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.1434248446860441</v>
+        <v>-0.1446846938697486</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.2136569692020152</v>
+        <v>-0.2128801189020159</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.4981809396659</v>
+        <v>-0.5093543648469845</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.07634086394995994</v>
+        <v>-0.06786390470281659</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.1128789417015767</v>
+        <v>-0.114689291398698</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.3614383917214957</v>
+        <v>-0.3642243909988506</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.09116698072437138</v>
+        <v>-0.09068701080510222</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>-0.144213355425835</v>
+        <v>-0.1488471686264325</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>-0.1289579839726523</v>
+        <v>-0.1314020281732731</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.05979661430754123</v>
+        <v>0.05892658138424624</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.02596731320007775</v>
+        <v>0.04053003995798541</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>-0.2012243212167556</v>
+        <v>-0.1973367104251594</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.3570733529786936</v>
+        <v>0.3345426121043432</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.2734341933198121</v>
+        <v>0.2812278389387771</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>-0.1840578268817409</v>
+        <v>-0.1904836030463368</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.1113850146520855</v>
+        <v>0.1116918347526596</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>0.06167334111507569</v>
+        <v>0.0750769617738762</v>
       </c>
     </row>
     <row r="28">
@@ -1511,7 +1511,7 @@
         <v>-5.631238862574595</v>
       </c>
       <c r="H28" s="5" t="n">
-        <v>-15.91895895854514</v>
+        <v>-15.91895895854515</v>
       </c>
       <c r="I28" s="5" t="n">
         <v>7.096811758034183</v>
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>2.401193011419455</v>
+        <v>2.679502984998976</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-14.43814042324045</v>
+        <v>-13.89867405062444</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-38.06402813180786</v>
+        <v>-37.28929902140664</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-5.768478746731018</v>
+        <v>-6.957978875875467</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-12.97324102622243</v>
+        <v>-13.57694675528549</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-22.90344767961496</v>
+        <v>-22.71000813638195</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>0.4625509601139042</v>
+        <v>0.109889464154496</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>-11.24198373740711</v>
+        <v>-11.78633712930561</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>-28.26526994838154</v>
+        <v>-27.70520666000089</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>22.69197949727939</v>
+        <v>22.43368844252569</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>4.869755463029109</v>
+        <v>4.945865459651313</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>-20.60895895923915</v>
+        <v>-20.27083677931703</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>10.70273296252198</v>
+        <v>9.398020235641152</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>1.838650922761366</v>
+        <v>1.767651433657919</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>-9.593259792313628</v>
+        <v>-9.902493646610846</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>14.0724147796052</v>
+        <v>14.04574725319263</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>1.400610774151574</v>
+        <v>2.090746951421863</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>-16.79015435247543</v>
+        <v>-16.77871371020442</v>
       </c>
     </row>
     <row r="31">
@@ -1616,7 +1616,7 @@
         <v>-0.2472549685112861</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>-0.6989655015677995</v>
+        <v>-0.6989655015677997</v>
       </c>
       <c r="I31" s="6" t="n">
         <v>0.2022704264680536</v>
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>0.05156517654725731</v>
+        <v>0.04942041183179003</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.2805074645754908</v>
+        <v>-0.2666105984341109</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.7096197232991263</v>
+        <v>-0.7051990419330373</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>-0.2176193066611515</v>
+        <v>-0.2572283331012733</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.4825664960209093</v>
+        <v>-0.4988548910805863</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>-0.8125200126616728</v>
+        <v>-0.8122552794820754</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.008330908960468701</v>
+        <v>0.004235675572068705</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>-0.2995904387084626</v>
+        <v>-0.3026491171019059</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>-0.7286882381238644</v>
+        <v>-0.7225013952137571</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.575408308433597</v>
+        <v>0.5316483675261916</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.1081803135368715</v>
+        <v>0.1169382575132435</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>-0.4750659243960837</v>
+        <v>-0.4768328949624414</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.5654658624820577</v>
+        <v>0.5097205898296642</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.1155102159729193</v>
+        <v>0.102084230517754</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>-0.4871451541302798</v>
+        <v>-0.5197798029378585</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.4407148334125374</v>
+        <v>0.4616151156298438</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>0.04440693327674033</v>
+        <v>0.06775756335661842</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>-0.5366823819315838</v>
+        <v>-0.5326542709867947</v>
       </c>
     </row>
     <row r="34">
@@ -1725,7 +1725,7 @@
         <v>-1.523579335198916</v>
       </c>
       <c r="H34" s="5" t="n">
-        <v>0.1674011018950372</v>
+        <v>0.167401101895015</v>
       </c>
       <c r="I34" s="5" t="n">
         <v>-5.134871549168007</v>
@@ -1745,31 +1745,31 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>-12.32626560209874</v>
+        <v>-11.85769774560868</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>-8.000618873151849</v>
+        <v>-7.219237571937787</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>-15.60504124534177</v>
+        <v>-15.51379216839233</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>-14.73874753826349</v>
+        <v>-13.96962921676025</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>-9.204909795122767</v>
+        <v>-10.39332759536549</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>-7.278420968225988</v>
+        <v>-8.319601684919762</v>
       </c>
       <c r="I35" s="5" t="n">
-        <v>-10.63398347274273</v>
+        <v>-11.0397865159554</v>
       </c>
       <c r="J35" s="5" t="n">
-        <v>-6.744108283367856</v>
+        <v>-6.419668873792352</v>
       </c>
       <c r="K35" s="5" t="n">
-        <v>-8.792359506010451</v>
+        <v>-9.085603352474974</v>
       </c>
     </row>
     <row r="36">
@@ -1780,31 +1780,31 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>3.755174833928126</v>
+        <v>3.681160432607435</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>7.632230499702179</v>
+        <v>7.640334441102269</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>-0.6627924893621083</v>
+        <v>-0.752030407747614</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>1.236632979946368</v>
+        <v>1.792928797388333</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>5.912884821943515</v>
+        <v>6.287223458895144</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>7.414621392397389</v>
+        <v>7.661728708948344</v>
       </c>
       <c r="I36" s="5" t="n">
-        <v>1.008760066098455</v>
+        <v>1.240917402612437</v>
       </c>
       <c r="J36" s="5" t="n">
-        <v>5.403880738905528</v>
+        <v>5.297947439196449</v>
       </c>
       <c r="K36" s="5" t="n">
-        <v>2.236556038732289</v>
+        <v>2.162123636565279</v>
       </c>
     </row>
     <row r="37">
@@ -1830,7 +1830,7 @@
         <v>-0.03791037622650894</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.004165348404876117</v>
+        <v>0.004165348404875565</v>
       </c>
       <c r="I37" s="6" t="n">
         <v>-0.09209794752485811</v>
@@ -1850,31 +1850,31 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>-0.1645747047005786</v>
+        <v>-0.1582024520241107</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>-0.1089503224129124</v>
+        <v>-0.09738279979725242</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>-0.2062120541567477</v>
+        <v>-0.2064938490370674</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>-0.3406483882289353</v>
+        <v>-0.3175808621191289</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>-0.2101216216026852</v>
+        <v>-0.2316185431697136</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>-0.1661220330733834</v>
+        <v>-0.1803380455526356</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>-0.1849470904283569</v>
+        <v>-0.1842860042199598</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>-0.1180848871045785</v>
+        <v>-0.1105269504214761</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>-0.1492254269916783</v>
+        <v>-0.1574032292340809</v>
       </c>
     </row>
     <row r="39">
@@ -1885,31 +1885,31 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>0.05520528997256068</v>
+        <v>0.05287448147782828</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>0.1138321476527094</v>
+        <v>0.1153005469853408</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>-0.01399588180585124</v>
+        <v>-0.01132819898966082</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>0.03460625653911062</v>
+        <v>0.04711948690167405</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>0.159614670593637</v>
+        <v>0.173232413348809</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.2094709912537716</v>
+        <v>0.2123488847634756</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.01960641993729214</v>
+        <v>0.02424339934774431</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>0.1032274060830781</v>
+        <v>0.1024560049368174</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>0.04137177738134419</v>
+        <v>0.04089564768094021</v>
       </c>
     </row>
     <row r="40">
@@ -1930,7 +1930,7 @@
         <v>11.53508917961499</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>11.42950886245582</v>
+        <v>11.42950886245581</v>
       </c>
       <c r="F40" s="5" t="n">
         <v>10.17575330348507</v>
@@ -1939,7 +1939,7 @@
         <v>17.01419349455718</v>
       </c>
       <c r="H40" s="5" t="n">
-        <v>21.08745714317955</v>
+        <v>21.08745714317953</v>
       </c>
       <c r="I40" s="5" t="n">
         <v>11.40544406803311</v>
@@ -1948,7 +1948,7 @@
         <v>14.25659928537876</v>
       </c>
       <c r="K40" s="5" t="n">
-        <v>16.20636228864523</v>
+        <v>16.20636228864524</v>
       </c>
     </row>
     <row r="41">
@@ -1959,31 +1959,31 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>6.890770489434319</v>
+        <v>7.000665660441063</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>5.491982182058937</v>
+        <v>5.934821291672805</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>5.278667180209251</v>
+        <v>5.64125513282536</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>4.90313959126973</v>
+        <v>5.310372790881313</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>12.08714307517295</v>
+        <v>12.29206018750613</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>15.97532835902469</v>
+        <v>16.38711326890141</v>
       </c>
       <c r="I41" s="5" t="n">
-        <v>7.736830614455742</v>
+        <v>7.539221613584457</v>
       </c>
       <c r="J41" s="5" t="n">
-        <v>9.786844810760291</v>
+        <v>10.27638579250792</v>
       </c>
       <c r="K41" s="5" t="n">
-        <v>12.60042259232712</v>
+        <v>12.52472645064568</v>
       </c>
     </row>
     <row r="42">
@@ -1994,31 +1994,31 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>18.48635363668699</v>
+        <v>18.58710015612498</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>17.18118682946627</v>
+        <v>17.13867402516944</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>16.71436147431865</v>
+        <v>17.18947919111513</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>15.0416960557554</v>
+        <v>15.18183613850032</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>22.26258640205192</v>
+        <v>21.89366107572753</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>25.64380561596516</v>
+        <v>25.76122311952939</v>
       </c>
       <c r="I42" s="5" t="n">
-        <v>15.45457330606263</v>
+        <v>15.10044470079291</v>
       </c>
       <c r="J42" s="5" t="n">
-        <v>17.94959423145805</v>
+        <v>18.12422771387759</v>
       </c>
       <c r="K42" s="5" t="n">
-        <v>20.04704847652022</v>
+        <v>20.19760740426938</v>
       </c>
     </row>
     <row r="43">
@@ -2035,7 +2035,7 @@
         <v>0.244606373557351</v>
       </c>
       <c r="E43" s="6" t="n">
-        <v>0.2423674989290578</v>
+        <v>0.2423674989290576</v>
       </c>
       <c r="F43" s="6" t="n">
         <v>0.4905814872310797</v>
@@ -2044,7 +2044,7 @@
         <v>0.8202683476749116</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>1.016643758814358</v>
+        <v>1.016643758814357</v>
       </c>
       <c r="I43" s="6" t="n">
         <v>0.33838446727034</v>
@@ -2053,7 +2053,7 @@
         <v>0.4229744782836455</v>
       </c>
       <c r="K43" s="6" t="n">
-        <v>0.4808213723833613</v>
+        <v>0.4808213723833616</v>
       </c>
     </row>
     <row r="44">
@@ -2064,31 +2064,31 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>0.1408467548683343</v>
+        <v>0.1405284725907317</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>0.1094825413980784</v>
+        <v>0.11954317825772</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>0.1005870000244887</v>
+        <v>0.1098658766753971</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>0.2166748735530631</v>
+        <v>0.2253155550069576</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>0.5079436052509274</v>
+        <v>0.5256331500474523</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.6882277006639492</v>
+        <v>0.6743298544757265</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.2191390625488071</v>
+        <v>0.2133014459589369</v>
       </c>
       <c r="J44" s="6" t="n">
-        <v>0.2782790300745183</v>
+        <v>0.2876890291726769</v>
       </c>
       <c r="K44" s="6" t="n">
-        <v>0.3526276594833152</v>
+        <v>0.3501210265437225</v>
       </c>
     </row>
     <row r="45">
@@ -2099,31 +2099,31 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>0.423398506384701</v>
+        <v>0.4227793483540072</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>0.3904561107414916</v>
+        <v>0.390851073822432</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>0.3730793413918208</v>
+        <v>0.3878371271724585</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>0.8113537214931958</v>
+        <v>0.7985697224813246</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>1.206784612262208</v>
+        <v>1.164359400502025</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>1.410399790771012</v>
+        <v>1.413721956704278</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.4928513284270357</v>
+        <v>0.4718543345195336</v>
       </c>
       <c r="J45" s="6" t="n">
-        <v>0.571160244454184</v>
+        <v>0.568180166371466</v>
       </c>
       <c r="K45" s="6" t="n">
-        <v>0.6381573624009944</v>
+        <v>0.6352530528047047</v>
       </c>
     </row>
     <row r="46">
@@ -2144,7 +2144,7 @@
         <v>-7.644007601517155</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>-10.34624189749157</v>
+        <v>-10.34624189749158</v>
       </c>
       <c r="F46" s="5" t="n">
         <v>-4.21766842404368</v>
@@ -2162,7 +2162,7 @@
         <v>-2.9441069129439</v>
       </c>
       <c r="K46" s="5" t="n">
-        <v>-3.532609861794178</v>
+        <v>-3.532609861794183</v>
       </c>
     </row>
     <row r="47">
@@ -2173,31 +2173,31 @@
         </is>
       </c>
       <c r="C47" s="5" t="n">
-        <v>-12.8791874307098</v>
+        <v>-13.18939168720017</v>
       </c>
       <c r="D47" s="5" t="n">
-        <v>-12.57208873190504</v>
+        <v>-12.20996804455075</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>-16.37212124402197</v>
+        <v>-15.14394707246962</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>-8.474353673825135</v>
+        <v>-8.854508755547622</v>
       </c>
       <c r="G47" s="5" t="n">
-        <v>-2.754004704340808</v>
+        <v>-3.538741077077998</v>
       </c>
       <c r="H47" s="5" t="n">
-        <v>-1.490072894462623</v>
+        <v>-1.580719531221234</v>
       </c>
       <c r="I47" s="5" t="n">
-        <v>-9.52688076615623</v>
+        <v>-9.503324476546959</v>
       </c>
       <c r="J47" s="5" t="n">
-        <v>-6.553815028963765</v>
+        <v>-6.576967915604828</v>
       </c>
       <c r="K47" s="5" t="n">
-        <v>-6.844729972946151</v>
+        <v>-7.432478241975106</v>
       </c>
     </row>
     <row r="48">
@@ -2208,31 +2208,31 @@
         </is>
       </c>
       <c r="C48" s="5" t="n">
-        <v>-3.021951571254836</v>
+        <v>-3.017006810411033</v>
       </c>
       <c r="D48" s="5" t="n">
-        <v>-2.702072702272091</v>
+        <v>-2.463215445093673</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>-5.783607559898926</v>
+        <v>-5.165948580607269</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>0.3613315714364701</v>
+        <v>0.6794273820848048</v>
       </c>
       <c r="G48" s="5" t="n">
-        <v>6.477793109153741</v>
+        <v>5.910040612190696</v>
       </c>
       <c r="H48" s="5" t="n">
-        <v>7.018853875175673</v>
+        <v>7.649452316238248</v>
       </c>
       <c r="I48" s="5" t="n">
-        <v>-2.34680477082974</v>
+        <v>-2.410520006482199</v>
       </c>
       <c r="J48" s="5" t="n">
-        <v>0.7678890256987586</v>
+        <v>1.001479016620914</v>
       </c>
       <c r="K48" s="5" t="n">
-        <v>0.07510125828983966</v>
+        <v>-0.1860395468699188</v>
       </c>
     </row>
     <row r="49">
@@ -2249,7 +2249,7 @@
         <v>-0.1153522838094949</v>
       </c>
       <c r="E49" s="6" t="n">
-        <v>-0.1561304872962529</v>
+        <v>-0.1561304872962531</v>
       </c>
       <c r="F49" s="6" t="n">
         <v>-0.137726543387403</v>
@@ -2267,7 +2267,7 @@
         <v>-0.06135903697121448</v>
       </c>
       <c r="K49" s="6" t="n">
-        <v>-0.07362420779005051</v>
+        <v>-0.07362420779005062</v>
       </c>
     </row>
     <row r="50">
@@ -2278,31 +2278,31 @@
         </is>
       </c>
       <c r="C50" s="6" t="n">
-        <v>-0.1881274464082777</v>
+        <v>-0.1934304930786738</v>
       </c>
       <c r="D50" s="6" t="n">
-        <v>-0.1844478664856667</v>
+        <v>-0.1785968551754258</v>
       </c>
       <c r="E50" s="6" t="n">
-        <v>-0.2388509717744537</v>
+        <v>-0.2213564044396948</v>
       </c>
       <c r="F50" s="6" t="n">
-        <v>-0.2628284922390788</v>
+        <v>-0.2668805285268078</v>
       </c>
       <c r="G50" s="6" t="n">
-        <v>-0.08539245437085467</v>
+        <v>-0.1037275134759354</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>-0.04651764092435888</v>
+        <v>-0.04896026837555374</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>-0.1919587829318214</v>
+        <v>-0.1914185875047158</v>
       </c>
       <c r="J50" s="6" t="n">
-        <v>-0.1311745620729735</v>
+        <v>-0.1320700247156964</v>
       </c>
       <c r="K50" s="6" t="n">
-        <v>-0.1377441188335663</v>
+        <v>-0.1500178977095683</v>
       </c>
     </row>
     <row r="51">
@@ -2313,31 +2313,31 @@
         </is>
       </c>
       <c r="C51" s="6" t="n">
-        <v>-0.04642450870825868</v>
+        <v>-0.04763532812418581</v>
       </c>
       <c r="D51" s="6" t="n">
-        <v>-0.04095972139234933</v>
+        <v>-0.03860948839751448</v>
       </c>
       <c r="E51" s="6" t="n">
-        <v>-0.0888342534621353</v>
+        <v>-0.07861943512441052</v>
       </c>
       <c r="F51" s="6" t="n">
-        <v>0.01353832282304902</v>
+        <v>0.02619200093290452</v>
       </c>
       <c r="G51" s="6" t="n">
-        <v>0.2348790490731961</v>
+        <v>0.2102547848199668</v>
       </c>
       <c r="H51" s="6" t="n">
-        <v>0.2515687344271588</v>
+        <v>0.273951376202815</v>
       </c>
       <c r="I51" s="6" t="n">
-        <v>-0.05021906985189729</v>
+        <v>-0.05180340510107702</v>
       </c>
       <c r="J51" s="6" t="n">
-        <v>0.01807174096278753</v>
+        <v>0.02179535379332784</v>
       </c>
       <c r="K51" s="6" t="n">
-        <v>0.003027922877710897</v>
+        <v>-0.005067374013661564</v>
       </c>
     </row>
     <row r="52">
@@ -2387,31 +2387,31 @@
         </is>
       </c>
       <c r="C53" s="5" t="n">
-        <v>-0.05365161108945717</v>
+        <v>-0.02405488209757336</v>
       </c>
       <c r="D53" s="5" t="n">
-        <v>-0.5121847039648061</v>
+        <v>-0.5729560110815314</v>
       </c>
       <c r="E53" s="5" t="n">
-        <v>-2.723832664574531</v>
+        <v>-2.707151954043197</v>
       </c>
       <c r="F53" s="5" t="n">
-        <v>1.03780597043623</v>
+        <v>0.9978488321775435</v>
       </c>
       <c r="G53" s="5" t="n">
-        <v>3.993356744901302</v>
+        <v>3.903904662727135</v>
       </c>
       <c r="H53" s="5" t="n">
-        <v>6.597628316590375</v>
+        <v>6.49140499515104</v>
       </c>
       <c r="I53" s="5" t="n">
-        <v>0.8904024159451565</v>
+        <v>0.7959804175547456</v>
       </c>
       <c r="J53" s="5" t="n">
-        <v>2.133403840288193</v>
+        <v>2.187282996681732</v>
       </c>
       <c r="K53" s="5" t="n">
-        <v>2.265073857449148</v>
+        <v>2.366041579701585</v>
       </c>
     </row>
     <row r="54">
@@ -2422,31 +2422,31 @@
         </is>
       </c>
       <c r="C54" s="5" t="n">
-        <v>4.795589732664514</v>
+        <v>4.706904195623369</v>
       </c>
       <c r="D54" s="5" t="n">
-        <v>4.104746479592537</v>
+        <v>4.22783833693768</v>
       </c>
       <c r="E54" s="5" t="n">
-        <v>2.128379133375587</v>
+        <v>2.228620339170622</v>
       </c>
       <c r="F54" s="5" t="n">
-        <v>5.220109018345079</v>
+        <v>5.281698929093441</v>
       </c>
       <c r="G54" s="5" t="n">
-        <v>8.090391256794364</v>
+        <v>8.374629971929192</v>
       </c>
       <c r="H54" s="5" t="n">
-        <v>10.66787915303086</v>
+        <v>10.61027157922848</v>
       </c>
       <c r="I54" s="5" t="n">
-        <v>4.397989563134558</v>
+        <v>4.407357990619409</v>
       </c>
       <c r="J54" s="5" t="n">
-        <v>5.621394399602521</v>
+        <v>5.475655071419415</v>
       </c>
       <c r="K54" s="5" t="n">
-        <v>5.647821032321111</v>
+        <v>5.742757328730919</v>
       </c>
     </row>
     <row r="55">
@@ -2492,31 +2492,31 @@
         </is>
       </c>
       <c r="C56" s="6" t="n">
-        <v>-0.0009879377974236557</v>
+        <v>-0.000409790660759582</v>
       </c>
       <c r="D56" s="6" t="n">
-        <v>-0.009244813442025851</v>
+        <v>-0.009674483503124302</v>
       </c>
       <c r="E56" s="6" t="n">
-        <v>-0.0469834326768751</v>
+        <v>-0.04651469103613257</v>
       </c>
       <c r="F56" s="6" t="n">
-        <v>0.03730478286551183</v>
+        <v>0.03789548266172307</v>
       </c>
       <c r="G56" s="6" t="n">
-        <v>0.1443758169562618</v>
+        <v>0.1413032335927764</v>
       </c>
       <c r="H56" s="6" t="n">
-        <v>0.2390964181373519</v>
+        <v>0.2324886392898762</v>
       </c>
       <c r="I56" s="6" t="n">
-        <v>0.02114433697359209</v>
+        <v>0.01821004707021629</v>
       </c>
       <c r="J56" s="6" t="n">
-        <v>0.05003076006422229</v>
+        <v>0.0512214211129115</v>
       </c>
       <c r="K56" s="6" t="n">
-        <v>0.0528162761270048</v>
+        <v>0.05554512851197527</v>
       </c>
     </row>
     <row r="57">
@@ -2527,31 +2527,31 @@
         </is>
       </c>
       <c r="C57" s="6" t="n">
-        <v>0.08481685501142783</v>
+        <v>0.08393540051589937</v>
       </c>
       <c r="D57" s="6" t="n">
-        <v>0.0726722519773591</v>
+        <v>0.07574810701313098</v>
       </c>
       <c r="E57" s="6" t="n">
-        <v>0.03802409321000559</v>
+        <v>0.03998912133416314</v>
       </c>
       <c r="F57" s="6" t="n">
-        <v>0.2020863150051954</v>
+        <v>0.207577807373943</v>
       </c>
       <c r="G57" s="6" t="n">
-        <v>0.3152952799593512</v>
+        <v>0.326387114176674</v>
       </c>
       <c r="H57" s="6" t="n">
-        <v>0.4179975403665436</v>
+        <v>0.4174866226905976</v>
       </c>
       <c r="I57" s="6" t="n">
-        <v>0.1070173151278727</v>
+        <v>0.1065976239687106</v>
       </c>
       <c r="J57" s="6" t="n">
-        <v>0.1377947453071497</v>
+        <v>0.1335708706798779</v>
       </c>
       <c r="K57" s="6" t="n">
-        <v>0.1379689967777956</v>
+        <v>0.1415285908733705</v>
       </c>
     </row>
     <row r="58">
